--- a/Forecasts_By_Window/Forecast_Window_4.xlsx
+++ b/Forecasts_By_Window/Forecast_Window_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E2" t="n">
         <v>99.75</v>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E3" t="n">
         <v>173.75</v>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E4" t="n">
         <v>598</v>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E5" t="n">
         <v>109.5</v>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E6" t="n">
         <v>545.25</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E7" t="n">
         <v>410</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E8" t="n">
         <v>460.75</v>
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>G8WP29EHC6</t>
+          <t>HYT3MYM7CY</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E9" t="n">
-        <v>132.75</v>
+        <v>83.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>G8WP29EHC6</t>
+          <t>HYT3MYM7CY</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>G8WP29EHC6</t>
+          <t>HYT3MYM7CY</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E11" t="n">
-        <v>44</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>G8WP29EHC6</t>
+          <t>HYT3MYM7CY</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -707,16 +707,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E12" t="n">
-        <v>130.5</v>
+        <v>92.25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>G8WP29EHC6</t>
+          <t>HYT3MYM7CY</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -730,21 +730,21 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E13" t="n">
-        <v>47.25</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>G8WP29EHC6</t>
+          <t>HYT3MYM7CY</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -753,16 +753,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E14" t="n">
-        <v>49.25</v>
+        <v>299.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HYT3MYM7CY</t>
+          <t>IMFA21HLV3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -776,16 +776,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E15" t="n">
-        <v>83.75</v>
+        <v>304.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HYT3MYM7CY</t>
+          <t>IMFA21HLV3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -799,16 +799,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E16" t="n">
-        <v>148</v>
+        <v>467.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HYT3MYM7CY</t>
+          <t>IMFA21HLV3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E17" t="n">
-        <v>424</v>
+        <v>297.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HYT3MYM7CY</t>
+          <t>IMFA21HLV3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E18" t="n">
-        <v>92.25</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HYT3MYM7CY</t>
+          <t>IMFA21HLV3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -868,21 +868,21 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E19" t="n">
-        <v>443</v>
+        <v>168.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HYT3MYM7CY</t>
+          <t>IMFA21HLV3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>XXS</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -891,16 +891,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E20" t="n">
-        <v>299.75</v>
+        <v>168.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IMFA21HLV3</t>
+          <t>JU9OS20S99</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -914,16 +914,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E21" t="n">
-        <v>304.25</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IMFA21HLV3</t>
+          <t>JU9OS20S99</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E22" t="n">
-        <v>467.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IMFA21HLV3</t>
+          <t>JU9OS20S99</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -960,16 +960,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E23" t="n">
-        <v>297.5</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IMFA21HLV3</t>
+          <t>JU9OS20S99</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -983,16 +983,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E24" t="n">
-        <v>144</v>
+        <v>124.75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IMFA21HLV3</t>
+          <t>JU9OS20S99</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1006,21 +1006,21 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E25" t="n">
-        <v>168.25</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IMFA21HLV3</t>
+          <t>JU9OS20S99</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1029,16 +1029,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E26" t="n">
-        <v>168.25</v>
+        <v>155.25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>JU9OS20S99</t>
+          <t>R5X6KPETN3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1052,16 +1052,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E27" t="n">
-        <v>99.75</v>
+        <v>652.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JU9OS20S99</t>
+          <t>R5X6KPETN3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E28" t="n">
-        <v>25.5</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>JU9OS20S99</t>
+          <t>R5X6KPETN3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1098,16 +1098,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E29" t="n">
-        <v>22.25</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>JU9OS20S99</t>
+          <t>R5X6KPETN3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1121,16 +1121,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E30" t="n">
-        <v>124.75</v>
+        <v>223.25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JU9OS20S99</t>
+          <t>R5X6KPETN3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E31" t="n">
-        <v>48.75</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>JU9OS20S99</t>
+          <t>R5X6KPETN3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>XXS</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E32" t="n">
-        <v>155.25</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PPB56V08LB</t>
+          <t>RX38XS00QN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1190,16 +1190,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E33" t="n">
-        <v>856</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PPB56V08LB</t>
+          <t>RX38XS00QN</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1213,16 +1213,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E34" t="n">
-        <v>866</v>
+        <v>39.25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PPB56V08LB</t>
+          <t>RX38XS00QN</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1236,16 +1236,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E35" t="n">
-        <v>277.5</v>
+        <v>145.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PPB56V08LB</t>
+          <t>RX38XS00QN</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1259,16 +1259,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E36" t="n">
-        <v>302</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PPB56V08LB</t>
+          <t>RX38XS00QN</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1282,21 +1282,21 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E37" t="n">
-        <v>301.25</v>
+        <v>158.25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PPB56V08LB</t>
+          <t>RX38XS00QN</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1305,16 +1305,16 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E38" t="n">
-        <v>303.75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>R5X6KPETN3</t>
+          <t>merged_G8WP29EHC6_PPB56V08LB</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1328,16 +1328,16 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E39" t="n">
-        <v>652.25</v>
+        <v>988.75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>R5X6KPETN3</t>
+          <t>merged_G8WP29EHC6_PPB56V08LB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1351,16 +1351,16 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E40" t="n">
-        <v>630</v>
+        <v>926</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>R5X6KPETN3</t>
+          <t>merged_G8WP29EHC6_PPB56V08LB</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E41" t="n">
-        <v>230</v>
+        <v>321.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>R5X6KPETN3</t>
+          <t>merged_G8WP29EHC6_PPB56V08LB</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1397,16 +1397,16 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42" t="n">
-        <v>223.25</v>
+        <v>432.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>R5X6KPETN3</t>
+          <t>merged_G8WP29EHC6_PPB56V08LB</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1420,16 +1420,16 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E43" t="n">
-        <v>222</v>
+        <v>348.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>R5X6KPETN3</t>
+          <t>merged_G8WP29EHC6_PPB56V08LB</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1443,148 +1443,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E44" t="n">
-        <v>199.5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>RX38XS00QN</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E45" t="n">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>RX38XS00QN</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E46" t="n">
-        <v>39.25</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>RX38XS00QN</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E47" t="n">
-        <v>145.5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>RX38XS00QN</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E48" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>RX38XS00QN</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E49" t="n">
-        <v>158.25</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>RX38XS00QN</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>XXS</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E50" t="n">
-        <v>91</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/Forecasts_By_Window/Forecast_Window_4.xlsx
+++ b/Forecasts_By_Window/Forecast_Window_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,208 +463,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DTPQ67872X</t>
+          <t>merged_06GE2U92FA_DTPQ67872X_G8WP29EHC6_HYT3MYM7CY_IMFA21HLV3_JU9OS20S99_PPB56V08LB_R5X6KPETN3_RX38XS00QN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>onesize</t>
+          <t>merged_L_M_S_XL_XS_XXL_XXS_onesize</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Platform</t>
+          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Platform_Rome_Stockholm_Webshop</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>2024</v>
       </c>
       <c r="E2" t="n">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DTPQ67872X</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>onesize</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Webshop</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E3" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DTPQ67872X</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>onesize</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Rome_Stockholm</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E4" t="n">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RX38XS00QN</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>merged_L_M_S_XL_XS_XXL_XXS</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Platform</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E5" t="n">
-        <v>15.25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RX38XS00QN</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>merged_L_M_S_XL_XS_XXL_XXS</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Webshop</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E6" t="n">
-        <v>87.25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>RX38XS00QN</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>merged_L_M_S_XL_XS_XXL_XXS</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Rome_Stockholm</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E7" t="n">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>merged_06GE2U92FA_G8WP29EHC6_HYT3MYM7CY_IMFA21HLV3_JU9OS20S99_PPB56V08LB_R5X6KPETN3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>merged_L_M_S_XL_XS_XXL_XXS</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Platform</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E8" t="n">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>merged_06GE2U92FA_G8WP29EHC6_HYT3MYM7CY_IMFA21HLV3_JU9OS20S99_PPB56V08LB_R5X6KPETN3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>merged_L_M_S_XL_XS_XXL_XXS</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Webshop</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2607.25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>merged_06GE2U92FA_G8WP29EHC6_HYT3MYM7CY_IMFA21HLV3_JU9OS20S99_PPB56V08LB_R5X6KPETN3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>merged_L_M_S_XL_XS_XXL_XXS</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>merged_Amsterdam_Berlin_Brussels_Copenhagen_Helsinki_Madrid_Paris_Rome_Stockholm</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8017</v>
+        <v>11913.5</v>
       </c>
     </row>
   </sheetData>
